--- a/results/query_dr3.xlsx
+++ b/results/query_dr3.xlsx
@@ -434,13 +434,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
     <col width="46" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>

--- a/results/query_dr3.xlsx
+++ b/results/query_dr3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,12 @@
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,25 +493,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Mass</t>
+          <t>Stellar Mass</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Luminosity</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Radius</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>HD Number</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GJ Number</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HIP Number</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Object Type</t>
         </is>
@@ -545,22 +557,28 @@
       <c r="I2" t="n">
         <v>1.208073019981384</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>2.854192018508911</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.485901117324829</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>HD  30652</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>GJ 178</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>HIP 22449</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -596,12 +614,18 @@
       <c r="I3" t="n">
         <v>1.658677220344543</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>9.63154125213623</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83889639377594</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>GJ 331.0, GJ 331 A</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -637,22 +661,28 @@
       <c r="I4" t="n">
         <v>0.9600480794906616</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>1.266243457794189</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.14342212677002</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>HD   4614, HD   4614A</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>GJ 34 A</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>HIP 3821</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -688,22 +718,28 @@
       <c r="I5" t="n">
         <v>1.384102463722229</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>4.551782608032227</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.564594268798828</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>HD 110379J, HD 110379</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>GJ 482.0, GJ 482 A</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>HIP 61941</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -739,22 +775,28 @@
       <c r="I6" t="n">
         <v>0.811199426651001</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>0.3397067785263062</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7761164307594299</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>HD  22049</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>HIP 16537</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -790,22 +832,28 @@
       <c r="I7" t="n">
         <v>1.174166917800903</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v>3.589373588562012</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.752543449401855</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>HD 102870</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>GJ 449</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>HIP 57757</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -841,22 +889,28 @@
       <c r="I8" t="n">
         <v>1.171395897865295</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v>2.432625293731689</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.374164462089539</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>HD  38393</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>GJ 216 A</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>HIP 27072</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -892,22 +946,28 @@
       <c r="I9" t="n">
         <v>1.45422089099884</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>5.649169445037842</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.669570803642273</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>HD  40136</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>GJ 225</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>HIP 28103</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -943,22 +1003,28 @@
       <c r="I10" t="n">
         <v>1.285441875457764</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v>3.657918453216553</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.59719705581665</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>HD 210027</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>GJ 848</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>HIP 109176</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -994,22 +1060,28 @@
       <c r="I11" t="n">
         <v>1.228531837463379</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>3.054755926132202</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.523345708847046</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>HD 142860</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>GJ 603</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>HIP 78072</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1045,22 +1117,28 @@
       <c r="I12" t="n">
         <v>1.333184957504272</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v>4.415325164794922</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.893325090408325</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>HD  20010, HD  20010A</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>GJ 127 A</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>HIP 14879</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1096,22 +1174,28 @@
       <c r="I13" t="n">
         <v>1.056732773780823</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v>2.230599164962769</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.442274332046509</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>HD  19373</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>GJ 124</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>HIP 14632</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1147,22 +1231,28 @@
       <c r="I14" t="n">
         <v>1.434542298316956</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v>5.450182437896729</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.68848991394043</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>HD  90589</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>GJ 391</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>HIP 50954</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Variable*</t>
         </is>
@@ -1198,22 +1288,28 @@
       <c r="I15" t="n">
         <v>1.3208087682724</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>4.214040756225586</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.816527128219604</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>HD 126660</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>GJ 549 A</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>HIP 70497</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1249,22 +1345,28 @@
       <c r="I16" t="n">
         <v>1.505081295967102</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>7.258101940155029</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.103240728378296</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>HD  71243</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>GJ 305</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>HIP 40702</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1300,22 +1402,28 @@
       <c r="I17" t="n">
         <v>1.256554961204529</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>3.408948659896851</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.655236005783081</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>HD   9826</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>GJ 61</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>HIP 7513</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1351,22 +1459,28 @@
       <c r="I18" t="n">
         <v>1.188029289245605</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>2.340813636779785</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.291966319084167</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>HD  16895</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>GJ 107 A</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>HIP 12777</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1402,17 +1516,23 @@
       <c r="I19" t="n">
         <v>0.8256458044052124</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0.5142145156860352</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8819471001625061</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>HD 165341A</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>GJ 702 A</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -1448,22 +1568,28 @@
       <c r="I20" t="n">
         <v>1.270613551139832</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>3.553479909896851</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.661388874053955</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>HD 222368</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>GJ 904</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>HIP 116771</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1499,22 +1625,28 @@
       <c r="I21" t="n">
         <v>0.8859955668449402</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0.6464073657989502</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9096494913101196</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>HD  20794</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>GJ 139</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>HIP 15510</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1550,22 +1682,28 @@
       <c r="I22" t="n">
         <v>1.012741327285767</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>1.287983536720276</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.101874828338623</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>HD   1581</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>GJ 17</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>HIP 1599</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1601,22 +1739,28 @@
       <c r="I23" t="n">
         <v>1.461627006530762</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>6.523843765258789</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.135023355484009</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>HD 173667</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>GJ 9635, GJ 725.2</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>HIP 92043</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1652,22 +1796,28 @@
       <c r="I24" t="n">
         <v>1.12365734577179</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>1.50760293006897</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.102028608322144</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>HD 203608</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>GJ 827</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>HIP 105858</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1703,22 +1853,28 @@
       <c r="I25" t="n">
         <v>1.029361605644226</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>1.436209559440613</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.147367477416992</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>HD 114710</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>GJ 502</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>HIP 64394</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1754,22 +1910,28 @@
       <c r="I26" t="n">
         <v>0.9773491621017456</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>1.247153520584106</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.120541095733643</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>HD 109358</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>GJ 475</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>HIP 61317</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -1805,22 +1967,28 @@
       <c r="I27" t="n">
         <v>1.405683279037476</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>5.364315509796143</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.835376620292664</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>HD  23754</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>GJ 155</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>HIP 17651</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1856,22 +2024,28 @@
       <c r="I28" t="n">
         <v>1.129953265190125</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>3.161086082458496</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.698428153991699</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>HD  22484</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>GJ 147</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>HIP 16852</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1907,22 +2081,28 @@
       <c r="I29" t="n">
         <v>1.416257262229919</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>5.173364639282227</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.664821743965149</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>HD 109085</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>GJ 9411, GJ 471.2</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>HIP 61174</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1958,22 +2138,28 @@
       <c r="I30" t="n">
         <v>1.000099539756775</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>1.12616503238678</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.048060297966003</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>HD  39587</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>GJ 222</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>HIP 27913</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -2009,22 +2195,28 @@
       <c r="I31" t="n">
         <v>0.7392322421073914</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0.2248930931091309</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7631266117095947</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>HD 209100</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>HIP 108870</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2060,22 +2252,28 @@
       <c r="I32" t="n">
         <v>1.217058777809143</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>2.860877990722656</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.440137505531311</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>HD  17206</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>GJ 111.0, GJ 111</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>HIP 12843</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2111,22 +2309,28 @@
       <c r="I33" t="n">
         <v>1.249621748924255</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>3.183506011962891</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.488642454147339</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>HD 120136</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>GJ 527 A, GJ 527</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>HIP 67275</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -2162,22 +2366,28 @@
       <c r="I34" t="n">
         <v>1.364394903182983</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>4.529631614685059</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.638489365577698</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>HD 185395</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>GJ 765 A</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>HIP 96441</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2213,22 +2423,28 @@
       <c r="I35" t="n">
         <v>1.121078610420227</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>3.238964557647705</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.814490079879761</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>HD 142373</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>GJ 602</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>HIP 77760</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2264,22 +2480,28 @@
       <c r="I36" t="n">
         <v>1.315885066986084</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>4.049165725708008</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.660637617111206</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>HD  81997</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>GJ 348 A</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>HIP 46509</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -2315,17 +2537,23 @@
       <c r="I37" t="n">
         <v>0.9037054181098938</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0.5541511178016663</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8552996516227722</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>HD 131156A</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>GJ 566 A</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2361,22 +2589,28 @@
       <c r="I38" t="n">
         <v>1.310580730438232</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>3.524461030960083</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.43748664855957</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>HD 139664</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>GJ 594</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>HIP 76829</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2412,22 +2646,28 @@
       <c r="I39" t="n">
         <v>0.9979292154312134</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>1.810982704162598</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.350657105445862</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>HD  34411</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>GJ 197</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>HIP 24813</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2463,22 +2703,28 @@
       <c r="I40" t="n">
         <v>1.088836669921875</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>1.551730990409851</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.138213515281677</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>HD  33262</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>GJ 189</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>HIP 23693</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2514,22 +2760,28 @@
       <c r="I41" t="n">
         <v>1.095845222473145</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>1.687342047691345</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.17602801322937</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>HD  90839</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>GJ 395</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>HIP 51459</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2565,22 +2817,28 @@
       <c r="I42" t="n">
         <v>0.8899210095405579</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0.8712109923362732</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.013588547706604</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>HD 102365</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>GJ 442 A</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>HIP 57443</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2616,22 +2874,28 @@
       <c r="I43" t="n">
         <v>1.221406698226929</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>2.888048648834229</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.437876105308533</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>HD 160915</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>GJ 692</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>HIP 86736</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2667,22 +2931,28 @@
       <c r="I44" t="n">
         <v>1.037501573562622</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>2.450599670410156</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.630358695983887</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>HD  32923</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>GJ 188.0, GJ 188</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>HIP 23835</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -2718,22 +2988,28 @@
       <c r="I45" t="n">
         <v>1.059476852416992</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="n">
+        <v>1.376362442970276</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.101296782493591</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>HD 147584</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>GJ 624</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>HIP 80686</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -2769,22 +3045,28 @@
       <c r="I46" t="n">
         <v>1.254326224327087</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>3.376569032669067</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.636940479278564</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>HD    693</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>GJ 10</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>HIP 910</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2820,22 +3102,28 @@
       <c r="I47" t="n">
         <v>0.6795274019241333</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>0.1506889462471008</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.6822791695594788</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>HD 201091</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>GJ 820 A</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>HIP 104214</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -2871,22 +3159,28 @@
       <c r="I48" t="n">
         <v>1.112859606742859</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>2.048261642456055</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.310870766639709</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>HD  84117</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>GJ 364.0, GJ 364</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>HIP 47592</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2922,22 +3216,28 @@
       <c r="I49" t="n">
         <v>1.230955839157104</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="n">
+        <v>3.065739870071411</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.512642741203308</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>HD 114837</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>GJ 503</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>HIP 64583</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2973,22 +3273,28 @@
       <c r="I50" t="n">
         <v>1.010113954544067</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" t="n">
+        <v>1.921733021736145</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.383494257926941</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>HD  10307</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>GJ 67 B, GJ 67 A, GJ 67</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>HIP 7918</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -3024,22 +3330,28 @@
       <c r="I51" t="n">
         <v>1.284034967422485</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>3.46063232421875</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.487077832221985</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>HD 134083</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>GJ 578</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>HIP 73996</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3075,22 +3387,28 @@
       <c r="I52" t="n">
         <v>1.232632517814636</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>3.017009496688843</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.466977834701538</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>HD 210302</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>GJ 9770, GJ 849.1</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>HIP 109422</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3126,22 +3444,28 @@
       <c r="I53" t="n">
         <v>1.101891398429871</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>2.001729965209961</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.31784975528717</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>HD   7570</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>GJ 55</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>HIP 5862</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3177,17 +3501,23 @@
       <c r="I54" t="n">
         <v>0.8145808577537537</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0.3343909978866577</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7715179920196533</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>HD 155885</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>GJ 663 B</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3223,17 +3553,23 @@
       <c r="I55" t="n">
         <v>0.8094933032989502</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0.3343425989151001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.773272693157196</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>HD 155886</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>GJ 663 A</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3269,22 +3605,28 @@
       <c r="I56" t="n">
         <v>1.095647215843201</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>1.815900087356567</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.220193386077881</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>HD  35296</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>GJ 202</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>HIP 25278</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -3320,22 +3662,28 @@
       <c r="I57" t="n">
         <v>0.9863498210906982</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>1.610941290855408</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.273023962974548</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>HD  95128</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>GJ 407</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>HIP 53721</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3371,22 +3719,28 @@
       <c r="I58" t="n">
         <v>0.8752386569976807</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0.8473567962646484</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.01522171497345</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>HD  43834</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>GJ 231</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>HIP 29271</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3422,22 +3776,28 @@
       <c r="I59" t="n">
         <v>1.263893246650696</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>3.114909172058105</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.410952568054199</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>HD  43386</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>GJ 9207</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>HIP 29800</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3473,17 +3833,23 @@
       <c r="I60" t="n">
         <v>1.239753842353821</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>2.710427522659302</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.33031177520752</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>HD  64379A</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>GJ 292 A</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3519,22 +3885,28 @@
       <c r="I61" t="n">
         <v>0.9699613451957703</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>1.893630504608154</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.466662645339966</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>GJ 691.0, GJ 691</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>HIP 86796</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3570,22 +3942,28 @@
       <c r="I62" t="n">
         <v>1.053006649017334</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>2.019006729125977</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.348439812660217</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>HD 165908, HD 165908A</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>GJ 704.0, GJ 704 A, GJ 704</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>HIP 88745</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -3621,22 +3999,28 @@
       <c r="I63" t="n">
         <v>1.126057386398315</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>2.836319208145142</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.548423051834106</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>HD 187691</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>GJ 9671 A, GJ 768.1 A</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>HIP 97675</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3672,22 +4056,28 @@
       <c r="I64" t="n">
         <v>1.182631850242615</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>2.511733055114746</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.375652074813843</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>HD  69897</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>GJ 303</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>HIP 40843</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3723,22 +4113,28 @@
       <c r="I65" t="n">
         <v>0.8127993941307068</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0.4628649055957794</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.873950719833374</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>HD  10476</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>GJ 68.0, GJ 68</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>HIP 7981</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3774,22 +4170,28 @@
       <c r="I66" t="n">
         <v>1.121958136558533</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>1.831276178359985</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.206538915634155</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>HD   4813</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>GJ 37</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>HIP 3909</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3825,22 +4227,28 @@
       <c r="I67" t="n">
         <v>1.064713716506958</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J67" t="n">
+        <v>2.176653146743774</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.397444248199463</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>HD 115383</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>GJ 504</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>HIP 64792</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3876,22 +4284,28 @@
       <c r="I68" t="n">
         <v>0.9965256452560425</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J68" t="n">
+        <v>0.9982225298881531</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.001507878303528</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>HD  20807</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>GJ 138</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>HIP 15371</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -3927,22 +4341,28 @@
       <c r="I69" t="n">
         <v>1.079639554023743</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>1.823572158813477</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.259985208511353</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>HD  48682, HD  48682A</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>GJ 245</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>HIP 32480</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3978,22 +4398,28 @@
       <c r="I70" t="n">
         <v>0.8721115589141846</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0.6305987238883972</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9092277884483337</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>HD 101501</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>GJ 434</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>HIP 56997</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4029,17 +4455,23 @@
       <c r="I71" t="n">
         <v>1.020724296569824</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>1.511979103088379</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.199373006820679</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>HD 176051A</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>GJ 738 A</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4075,22 +4507,28 @@
       <c r="I72" t="n">
         <v>0.9671276807785034</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>1.527917861938477</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.261417269706726</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>HD  63077</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>GJ 288 A</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>HIP 37853</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4126,22 +4564,28 @@
       <c r="I73" t="n">
         <v>0.8660471439361572</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" t="n">
+        <v>0.7891569137573242</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9945215582847595</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>HD  82885</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>GJ 356 A</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>HIP 47080</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -4177,22 +4621,28 @@
       <c r="I74" t="n">
         <v>0.9758573174476624</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" t="n">
+        <v>1.359028935432434</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.170603513717651</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>HD  86728</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>GJ 376 A, GJ 376</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>HIP 49081</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4228,22 +4678,28 @@
       <c r="I75" t="n">
         <v>0.9294560551643372</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" t="n">
+        <v>1.334693193435669</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.2142174243927</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>HD 157214</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>GJ 672</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>HIP 84862</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>RGB*</t>
         </is>
@@ -4279,22 +4735,28 @@
       <c r="I76" t="n">
         <v>0.9714177250862122</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>1.012942671775818</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.023439407348633</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>HD 147513</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>GJ 9559, GJ 620.1 A</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>HIP 80337</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4330,22 +4792,28 @@
       <c r="I77" t="n">
         <v>0.982096791267395</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J77" t="n">
+        <v>1.182158231735229</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.083894491195679</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>HD 211415</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>GJ 853.0, GJ 853 A</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>HIP 110109</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4381,22 +4849,28 @@
       <c r="I78" t="n">
         <v>0.9898955821990967</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>1.874461889266968</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.39950430393219</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>HD 143761</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>GJ 9537, GJ 606.2</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>HIP 78459</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4432,22 +4906,28 @@
       <c r="I79" t="n">
         <v>1.14555549621582</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" t="n">
+        <v>2.046326637268066</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.25653064250946</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>HD  25457</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>GJ 159</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>HIP 18859</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>TTauri*</t>
         </is>
@@ -4483,22 +4963,28 @@
       <c r="I80" t="n">
         <v>1.077322363853455</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="n">
+        <v>1.741390943527222</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.218589782714844</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>HD  17051</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>GJ 108</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>HIP 12653</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4534,22 +5020,28 @@
       <c r="I81" t="n">
         <v>0.9423887729644775</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" t="n">
+        <v>1.373876333236694</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.217865586280823</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>HD 217014</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>GJ 882</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>HIP 113357</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4585,22 +5077,28 @@
       <c r="I82" t="n">
         <v>0.8287235498428345</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" t="n">
+        <v>0.4597902595996857</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8410874009132385</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>HD 156274</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>HIP 84720</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4636,22 +5134,28 @@
       <c r="I83" t="n">
         <v>0.9464266300201416</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" t="n">
+        <v>1.106411576271057</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.086800456047058</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>HD 146233</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>GJ 616</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>HIP 79672</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4687,22 +5191,28 @@
       <c r="I84" t="n">
         <v>0.9695570468902588</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0.784449577331543</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9307870268821716</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>HD  20766</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>GJ 136</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>HIP 15330</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4738,22 +5248,28 @@
       <c r="I85" t="n">
         <v>0.8779153823852539</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" t="n">
+        <v>0.8789317011833191</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.028767466545105</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>HD 104304</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>GJ 454</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>HIP 58576</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4789,22 +5305,28 @@
       <c r="I86" t="n">
         <v>1.07492733001709</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>1.576708555221558</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.157568454742432</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>HD  10647</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>GJ 3109</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>HIP 7978</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4840,22 +5362,28 @@
       <c r="I87" t="n">
         <v>0.9849059581756592</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>1.516215682029724</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.228979587554932</v>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>HD  55575</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>GJ 1095</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>HIP 35136</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4891,22 +5419,28 @@
       <c r="I88" t="n">
         <v>0.9594608545303345</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>1.521073460578918</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.268716216087341</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>HD  53705</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>GJ 9223 A, GJ 264.1 A</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>HIP 34065</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4942,22 +5476,28 @@
       <c r="I89" t="n">
         <v>1.028008818626404</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>1.293548107147217</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.093514919281006</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>HD  65907, HD  65907A</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>GJ 294 A</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>HIP 38908</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4993,22 +5533,28 @@
       <c r="I90" t="n">
         <v>0.7615059018135071</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0.3003031015396118</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.7731918096542358</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>HD   4628</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>GJ 33</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>HIP 3765</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5044,22 +5590,28 @@
       <c r="I91" t="n">
         <v>0.815798282623291</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0.401447057723999</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.8517675995826721</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>GJ 785</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>HIP 99825</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5095,22 +5647,28 @@
       <c r="I92" t="n">
         <v>0.9188189506530762</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>1.054644823074341</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.082916498184204</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>GJ 582</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>HIP 75181</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5146,17 +5704,23 @@
       <c r="I93" t="n">
         <v>0.8484249711036682</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0.3325381875038147</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.7550486922264099</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>HD  10360</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>GJ 66 B</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5192,22 +5756,28 @@
       <c r="I94" t="n">
         <v>1.025861501693726</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>1.535464286804199</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.204053163528442</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>HD  39091</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>GJ 9189</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>HIP 26394</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5243,22 +5813,28 @@
       <c r="I95" t="n">
         <v>0.822171688079834</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0.4633771181106567</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.8696262836456299</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>HD 149661</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>GJ 631</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>HIP 81300</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5294,22 +5870,28 @@
       <c r="I96" t="n">
         <v>0.9945963025093079</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>1.280999779701233</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.11332905292511</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>HD  50692</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>GJ 252</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>HIP 33277</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Star</t>
         </is>
@@ -5345,17 +5927,23 @@
       <c r="I97" t="n">
         <v>0.7728912234306335</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0.3113968670368195</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.7736012935638428</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>HD  10361</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>GJ 66 A</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5391,22 +5979,28 @@
       <c r="I98" t="n">
         <v>0.9685804843902588</v>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0.9352704882621765</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9938063025474548</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>HD   4391</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>GJ 1021</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>HIP 3583</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>EclBin</t>
         </is>
@@ -5442,22 +6036,28 @@
       <c r="I99" t="n">
         <v>1.01095724105835</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>1.273106455802917</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.09736168384552</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>HD 190406</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>GJ 779</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>HIP 98819</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5493,22 +6093,28 @@
       <c r="I100" t="n">
         <v>0.9173334240913391</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0.8502410650253296</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9868084788322449</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>HD 140538A, HD 140538</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>HIP 77052</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5544,22 +6150,28 @@
       <c r="I101" t="n">
         <v>1.024470686912537</v>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>1.247146725654602</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.078866720199585</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>HD 130948, HD 130948A</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>GJ 564 A, GJ 564</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>HIP 72567</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5595,22 +6207,28 @@
       <c r="I102" t="n">
         <v>1.121850848197937</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>1.279635787010193</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.031344771385193</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>HD 125276</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>GJ 9476 A, GJ 542.1 A</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>HIP 69965</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5646,22 +6264,28 @@
       <c r="I103" t="n">
         <v>0.8674441576004028</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0.362448513507843</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.7606188654899597</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>HD 100623</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>GJ 432 A</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>HIP 56452</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5697,22 +6321,28 @@
       <c r="I104" t="n">
         <v>0.8681789040565491</v>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0.5940210223197937</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.8935460448265076</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>HD  69830</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>GJ 302</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>HIP 40693</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5748,22 +6378,28 @@
       <c r="I105" t="n">
         <v>0.9829214215278625</v>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J105" t="n">
+        <v>1.033801317214966</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.024202108383179</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>HD  25680</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>GJ 160</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="N105" t="inlineStr">
         <is>
           <t>HIP 19076</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -5799,22 +6435,28 @@
       <c r="I106" t="n">
         <v>1.028079748153687</v>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>1.091245770454407</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.019992709159851</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>HD 110897</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>GJ 484</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>HIP 62207</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5850,22 +6492,28 @@
       <c r="I107" t="n">
         <v>0.9937224984169006</v>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J107" t="n">
+        <v>1.041857600212097</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.020186901092529</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>HD 165185</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>GJ 702.1</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>HIP 88694</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5901,22 +6549,28 @@
       <c r="I108" t="n">
         <v>0.9664596915245056</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J108" t="n">
+        <v>0.8291489481925964</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9512629508972168</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>HD  38858</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>GJ 1085</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>HIP 27435</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5952,22 +6606,28 @@
       <c r="I109" t="n">
         <v>1.026593208312988</v>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>1.254299879074097</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.080152988433838</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>HD  78366</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>GJ 334.2</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>HIP 44897</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6003,22 +6663,28 @@
       <c r="I110" t="n">
         <v>0.798069953918457</v>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0.4080899655818939</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.8505346775054932</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>HD  17925</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>GJ 117</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>HIP 13402</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -6054,22 +6720,28 @@
       <c r="I111" t="n">
         <v>1.024964570999146</v>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>1.148806214332581</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.042779445648193</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>HD 206860</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>GJ 9751, GJ 836.7</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>HIP 107350</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6105,22 +6777,28 @@
       <c r="I112" t="n">
         <v>0.9000962972640991</v>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0.8108887076377869</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9774929881095886</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>HD 140901</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>GJ 599 A</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>HIP 77358</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6156,22 +6834,28 @@
       <c r="I113" t="n">
         <v>0.942652702331543</v>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0.9594628214836121</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.020010828971863</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>HD  76151</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>GJ 327</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>HIP 43726</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6207,17 +6891,23 @@
       <c r="I114" t="n">
         <v>0.8001447319984436</v>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0.2996745407581329</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.7933292984962463</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>HD  38392</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>GJ 216 B</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6253,22 +6943,28 @@
       <c r="I115" t="n">
         <v>0.8791604042053223</v>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0.6305158138275146</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9054404497146606</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>HD    166</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>GJ 5</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>HIP 544</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6304,22 +7000,28 @@
       <c r="I116" t="n">
         <v>0.6819101572036743</v>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0.152802363038063</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.6784788966178894</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>HD 156026</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>GJ 664.0, GJ 664</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>HIP 84478</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -6355,22 +7057,28 @@
       <c r="I117" t="n">
         <v>0.8639876842498779</v>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0.3953031003475189</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.7888962626457214</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>HD  13445</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="N117" t="inlineStr">
         <is>
           <t>HIP 10138</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6406,22 +7114,28 @@
       <c r="I118" t="n">
         <v>0.9239809513092041</v>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>1.047884225845337</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.075455188751221</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>GJ 776</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="N118" t="inlineStr">
         <is>
           <t>HIP 98959</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6457,22 +7171,28 @@
       <c r="I119" t="n">
         <v>0.9505698680877686</v>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J119" t="n">
+        <v>1.023410081863403</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.042178988456726</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>HD 142267</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>GJ 3924</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="N119" t="inlineStr">
         <is>
           <t>HIP 77801</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -6508,22 +7228,28 @@
       <c r="I120" t="n">
         <v>0.8139665722846985</v>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0.4717261493206024</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.8537982702255249</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>HD  37394</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>GJ 211</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="N120" t="inlineStr">
         <is>
           <t>HIP 26779</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6559,22 +7285,28 @@
       <c r="I121" t="n">
         <v>0.9464660882949829</v>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J121" t="n">
+        <v>1.043079495429993</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.054622173309326</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>HD 190771</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>GJ 9685, GJ 1249</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="N121" t="inlineStr">
         <is>
           <t>HIP 98921</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6610,22 +7342,28 @@
       <c r="I122" t="n">
         <v>0.7254488468170166</v>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J122" t="n">
+        <v>0.1989193558692932</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.7459800243377686</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>HD 216803</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>GJ 879</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>HIP 113283</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6661,22 +7399,28 @@
       <c r="I123" t="n">
         <v>0.9208506941795349</v>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0.8472161889076233</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.983473539352417</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>HD 126053</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>GJ 547</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="N123" t="inlineStr">
         <is>
           <t>HIP 70319</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6712,22 +7456,28 @@
       <c r="I124" t="n">
         <v>0.8473617434501648</v>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0.6376664638519287</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9459607601165771</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>HD 122742</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>GJ 538</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="N124" t="inlineStr">
         <is>
           <t>HIP 68682</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -6763,22 +7513,28 @@
       <c r="I125" t="n">
         <v>0.9126808643341064</v>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="J125" t="n">
+        <v>0.7721790075302124</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9540483355522156</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>HD 111395</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>GJ 486.1</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="N125" t="inlineStr">
         <is>
           <t>HIP 62523</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6814,22 +7570,28 @@
       <c r="I126" t="n">
         <v>0.9353604316711426</v>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0.6905009150505066</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.9071779251098633</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>HD  43162</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>GJ 3389</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="N126" t="inlineStr">
         <is>
           <t>HIP 29568</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>Low-Mass*</t>
         </is>
@@ -6865,22 +7627,28 @@
       <c r="I127" t="n">
         <v>0.7390746474266052</v>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0.2220632135868073</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.7508496046066284</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>HD  50281A, HD  50281</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>GJ 250 A</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="N127" t="inlineStr">
         <is>
           <t>HIP 32984</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6916,22 +7684,28 @@
       <c r="I128" t="n">
         <v>0.9699419736862183</v>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0.7957682013511658</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.93532794713974</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="N128" t="inlineStr">
         <is>
           <t>HIP 29525</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -6967,22 +7741,28 @@
       <c r="I129" t="n">
         <v>0.7809653282165527</v>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0.3203310072422028</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.8012419939041138</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>HD  74576</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="M129" t="inlineStr">
         <is>
           <t>GJ 320</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="N129" t="inlineStr">
         <is>
           <t>HIP 42808</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7018,22 +7798,28 @@
       <c r="I130" t="n">
         <v>0.7660174965858459</v>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="J130" t="n">
+        <v>0.3024266362190247</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.7704703211784363</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>HD 115404A, HD 115404</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>GJ 505 A</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="N130" t="inlineStr">
         <is>
           <t>HIP 64797</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7069,22 +7855,28 @@
       <c r="I131" t="n">
         <v>0.8909311294555664</v>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J131" t="n">
+        <v>0.7223982214927673</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9422658085823059</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>HD 102438</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>GJ 446</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="N131" t="inlineStr">
         <is>
           <t>HIP 57507</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7120,22 +7912,28 @@
       <c r="I132" t="n">
         <v>0.8476845622062683</v>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="J132" t="n">
+        <v>0.6461469531059265</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.929655134677887</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>HD   1237A, HD   1237</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="M132" t="inlineStr">
         <is>
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="N132" t="inlineStr">
         <is>
           <t>HIP 1292</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7171,22 +7969,28 @@
       <c r="I133" t="n">
         <v>0.9512451887130737</v>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J133" t="n">
+        <v>0.5625982880592346</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.8356360793113708</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>HD 152391</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>GJ 641</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="N133" t="inlineStr">
         <is>
           <t>HIP 82588</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7222,22 +8026,28 @@
       <c r="I134" t="n">
         <v>0.8771740198135376</v>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="J134" t="n">
+        <v>0.7500820755958557</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.9635329842567444</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>HD 194640</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>GJ 790</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="N134" t="inlineStr">
         <is>
           <t>HIP 100925</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7273,22 +8083,28 @@
       <c r="I135" t="n">
         <v>0.8346534967422485</v>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="J135" t="n">
+        <v>0.4519504010677338</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.8954572081565857</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>HD  52698</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="M135" t="inlineStr">
         <is>
           <t>GJ 259</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="N135" t="inlineStr">
         <is>
           <t>HIP 33817</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7324,22 +8140,28 @@
       <c r="I136" t="n">
         <v>0.8214001655578613</v>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="J136" t="n">
+        <v>0.4724082052707672</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.8509048223495483</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>HD  41593</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>GJ 227</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="N136" t="inlineStr">
         <is>
           <t>HIP 28954</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7375,22 +8197,28 @@
       <c r="I137" t="n">
         <v>0.7994473576545715</v>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J137" t="n">
+        <v>0.3337226212024689</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.7763184309005737</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>HD 170657</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>GJ 716</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="N137" t="inlineStr">
         <is>
           <t>HIP 90790</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7426,22 +8254,28 @@
       <c r="I138" t="n">
         <v>0.9254339337348938</v>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J138" t="n">
+        <v>0.5897319316864014</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.8638186454772949</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>HD 154345</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>GJ 651</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="N138" t="inlineStr">
         <is>
           <t>HIP 83389</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7477,22 +8311,28 @@
       <c r="I139" t="n">
         <v>0.8360517621040344</v>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="J139" t="n">
+        <v>0.5749337077140808</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.8991650938987732</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>HD  53143</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="M139" t="inlineStr">
         <is>
           <t>GJ 260</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="N139" t="inlineStr">
         <is>
           <t>HIP 33690</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7528,22 +8368,28 @@
       <c r="I140" t="n">
         <v>0.8178085088729858</v>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J140" t="n">
+        <v>0.4990285634994507</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.8730607032775879</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>HD  53706</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>GJ 9223 B, GJ 264.1 B</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="N140" t="inlineStr">
         <is>
           <t>HIP 34069</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7579,22 +8425,28 @@
       <c r="I141" t="n">
         <v>0.8310837745666504</v>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J141" t="n">
+        <v>0.5007089972496033</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.8784917593002319</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>HD  21175</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="N141" t="inlineStr">
         <is>
           <t>HIP 15799</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7630,17 +8482,23 @@
       <c r="I142" t="n">
         <v>0.8663318753242493</v>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="J142" t="n">
+        <v>0.4027978479862213</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.7922072410583496</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>HD 135599</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="N142" t="inlineStr">
         <is>
           <t>HIP 74702</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7676,22 +8534,28 @@
       <c r="I143" t="n">
         <v>0.8051782250404358</v>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="J143" t="n">
+        <v>0.4165323078632355</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.843781590461731</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>HD  23484</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>GJ 152</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="N143" t="inlineStr">
         <is>
           <t>HIP 17439</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7727,22 +8591,28 @@
       <c r="I144" t="n">
         <v>0.9028145670890808</v>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="J144" t="n">
+        <v>0.5440536141395569</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.8504101037979126</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>HD   9540</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>GJ 59 A, GJ 59</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="N144" t="inlineStr">
         <is>
           <t>HIP 7235</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7778,22 +8648,28 @@
       <c r="I145" t="n">
         <v>0.858481228351593</v>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="J145" t="n">
+        <v>0.5506013035774231</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.876447856426239</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>HD  36435</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>GJ 9180, GJ 204.1</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>HIP 25544</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7829,17 +8705,23 @@
       <c r="I146" t="n">
         <v>0.7652207016944885</v>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="J146" t="n">
+        <v>0.3053004741668701</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.7911849021911621</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="N146" t="inlineStr">
         <is>
           <t>HIP 17420</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7875,22 +8757,28 @@
       <c r="I147" t="n">
         <v>0.8612580299377441</v>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J147" t="n">
+        <v>0.395486056804657</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.7902707457542419</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>HD 116442</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="M147" t="inlineStr">
         <is>
           <t>GJ 3781</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="N147" t="inlineStr">
         <is>
           <t>HIP 65352</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7926,22 +8814,28 @@
       <c r="I148" t="n">
         <v>0.8275960087776184</v>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="J148" t="n">
+        <v>0.3185525834560394</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.7564634084701538</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>HD 144628</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="N148" t="inlineStr">
         <is>
           <t>HIP 79190</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7977,22 +8871,28 @@
       <c r="I149" t="n">
         <v>0.7581689357757568</v>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="J149" t="n">
+        <v>0.2875678837299347</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.7706615924835205</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>HD   5133</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>GJ 42.0, GJ 42</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>HIP 4148</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8028,22 +8928,28 @@
       <c r="I150" t="n">
         <v>0.7452524304389954</v>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="J150" t="n">
+        <v>0.2516967952251434</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.7666177749633789</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>HD  82106</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="M150" t="inlineStr">
         <is>
           <t>GJ 349</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="N150" t="inlineStr">
         <is>
           <t>HIP 46580</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8079,22 +8985,28 @@
       <c r="I151" t="n">
         <v>0.7671073079109192</v>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="J151" t="n">
+        <v>0.3168478310108185</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.7804938554763794</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>HD 205390</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="M151" t="inlineStr">
         <is>
           <t>GJ 833</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="N151" t="inlineStr">
         <is>
           <t>HIP 106696</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8130,22 +9042,28 @@
       <c r="I152" t="n">
         <v>0.7848258018493652</v>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J152" t="n">
+        <v>0.36659836769104</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.8053073883056641</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>HD 109200</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="M152" t="inlineStr">
         <is>
           <t>GJ 472</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="N152" t="inlineStr">
         <is>
           <t>HIP 61291</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8181,22 +9099,28 @@
       <c r="I153" t="n">
         <v>0.7448537349700928</v>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="J153" t="n">
+        <v>0.2616010010242462</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.782414436340332</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>HD 128165</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>GJ 556</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="N153" t="inlineStr">
         <is>
           <t>HIP 71181</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8232,22 +9156,28 @@
       <c r="I154" t="n">
         <v>0.8132048845291138</v>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="J154" t="n">
+        <v>0.4025899171829224</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.8402727842330933</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>HD  67199</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>GJ 3476</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="N154" t="inlineStr">
         <is>
           <t>HIP 39342</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8283,22 +9213,28 @@
       <c r="I155" t="n">
         <v>0.7998977303504944</v>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="J155" t="n">
+        <v>0.3954252898693085</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.8145649433135986</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>HD 200968, HD 200968A</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>GJ 819 A</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="N155" t="inlineStr">
         <is>
           <t>HIP 104239</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8334,22 +9270,28 @@
       <c r="I156" t="n">
         <v>0.8663821816444397</v>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="J156" t="n">
+        <v>0.4552578032016754</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.821747362613678</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>HD   4747</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="M156" t="inlineStr">
         <is>
           <t>GJ 36</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="N156" t="inlineStr">
         <is>
           <t>HIP 3850</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8385,22 +9327,28 @@
       <c r="I157" t="n">
         <v>0.8262414336204529</v>
       </c>
-      <c r="J157" t="inlineStr">
+      <c r="J157" t="n">
+        <v>0.4266615808010101</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.8232706189155579</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>HD 222335</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="M157" t="inlineStr">
         <is>
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="N157" t="inlineStr">
         <is>
           <t>HIP 116763</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8436,22 +9384,28 @@
       <c r="I158" t="n">
         <v>0.8102591633796692</v>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="J158" t="n">
+        <v>0.3077710270881653</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.755670964717865</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>HD 190404</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="M158" t="inlineStr">
         <is>
           <t>GJ 778</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="N158" t="inlineStr">
         <is>
           <t>HIP 98792</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8487,22 +9441,28 @@
       <c r="I159" t="n">
         <v>0.7915802597999573</v>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="J159" t="n">
+        <v>0.3497446179389954</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.8172106742858887</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>HD  94765</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>GJ 3633</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr">
+      <c r="N159" t="inlineStr">
         <is>
           <t>HIP 53486</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -8538,22 +9498,28 @@
       <c r="I160" t="n">
         <v>0.779484748840332</v>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="J160" t="n">
+        <v>0.303650438785553</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.8103532195091248</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>HD 128311</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="M160" t="inlineStr">
         <is>
           <t>GJ 3860</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="N160" t="inlineStr">
         <is>
           <t>HIP 71395</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -8589,22 +9555,28 @@
       <c r="I161" t="n">
         <v>0.8158699870109558</v>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="J161" t="n">
+        <v>0.2803777158260345</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.7331227660179138</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>HD 217580</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>GJ 886</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="N161" t="inlineStr">
         <is>
           <t>HIP 113718</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8640,22 +9612,28 @@
       <c r="I162" t="n">
         <v>0.5671036243438721</v>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J162" t="n">
+        <v>0.06162146478891373</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.6419081687927246</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>HD 191849</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>GJ 784</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="N162" t="inlineStr">
         <is>
           <t>HIP 99701</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8691,22 +9669,28 @@
       <c r="I163" t="n">
         <v>0.7693394422531128</v>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="J163" t="n">
+        <v>0.3231841921806335</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.7889480590820312</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>HD  30876</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="M163" t="inlineStr">
         <is>
           <t>GJ 3317</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="N163" t="inlineStr">
         <is>
           <t>HIP 22451</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8742,22 +9726,28 @@
       <c r="I164" t="n">
         <v>0.6354238390922546</v>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J164" t="n">
+        <v>0.1007471531629562</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.7218945026397705</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>HD 217357</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="M164" t="inlineStr">
         <is>
           <t>GJ 884</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="N164" t="inlineStr">
         <is>
           <t>HIP 113576</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8793,22 +9783,28 @@
       <c r="I165" t="n">
         <v>0.6710611581802368</v>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="J165" t="n">
+        <v>0.1378070563077927</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.6654322743415833</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>HD 154363</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>GJ 653</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="N165" t="inlineStr">
         <is>
           <t>HIP 83591</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8844,17 +9840,23 @@
       <c r="I166" t="n">
         <v>0.8309369683265686</v>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J166" t="n">
+        <v>0.3271627128124237</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.7609192132949829</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>HD 148653A</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="M166" t="inlineStr">
         <is>
           <t>GJ 627 A</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8890,22 +9892,28 @@
       <c r="I167" t="n">
         <v>0.7559018731117249</v>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J167" t="n">
+        <v>0.2892640829086304</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.7805299162864685</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>HD  35854</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="M167" t="inlineStr">
         <is>
           <t>GJ 1079</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="N167" t="inlineStr">
         <is>
           <t>HIP 25421</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8941,22 +9949,28 @@
       <c r="I168" t="n">
         <v>0.7978719472885132</v>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="J168" t="n">
+        <v>0.3431615233421326</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.8137521743774414</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>HD 189733, HD 189733A</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>GJ 4130</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="N168" t="inlineStr">
         <is>
           <t>HIP 98505</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -8992,22 +10006,28 @@
       <c r="I169" t="n">
         <v>0.7937678098678589</v>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="J169" t="n">
+        <v>0.3369495570659637</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.8328620195388794</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>HD 200560, HD 200560A</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="M169" t="inlineStr">
         <is>
           <t>GJ 9717 A, GJ 816.1 A</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="N169" t="inlineStr">
         <is>
           <t>HIP 103859</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9043,17 +10063,23 @@
       <c r="I170" t="n">
         <v>0.7618128061294556</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="n">
+        <v>0.2891556322574615</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.7729818224906921</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>GJ 9233, GJ 273.1</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="N170" t="inlineStr">
         <is>
           <t>HIP 36357</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
+      <c r="O170" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9089,22 +10115,28 @@
       <c r="I171" t="n">
         <v>0.7682517766952515</v>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="J171" t="n">
+        <v>0.249051496386528</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.7671632766723633</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>HD 130992</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="M171" t="inlineStr">
         <is>
           <t>GJ 565</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="N171" t="inlineStr">
         <is>
           <t>HIP 72688</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="O171" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9140,22 +10172,28 @@
       <c r="I172" t="n">
         <v>0.7763200998306274</v>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="J172" t="n">
+        <v>0.3035344779491425</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.7665683031082153</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>HD 130307</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="M172" t="inlineStr">
         <is>
           <t>GJ 3867</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="N172" t="inlineStr">
         <is>
           <t>HIP 72312</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9191,22 +10229,28 @@
       <c r="I173" t="n">
         <v>0.7842408418655396</v>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="J173" t="n">
+        <v>0.2702801823616028</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.7719487547874451</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>HD 153557, HD 153557A</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="M173" t="inlineStr">
         <is>
           <t>GJ 649.1 A, GJ 649.1</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr">
+      <c r="N173" t="inlineStr">
         <is>
           <t>HIP 83020</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9242,22 +10286,28 @@
       <c r="I174" t="n">
         <v>0.7230852246284485</v>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="J174" t="n">
+        <v>0.1851952970027924</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.6936838030815125</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>HD  35171</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>GJ 201</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="N174" t="inlineStr">
         <is>
           <t>HIP 25220</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9293,22 +10343,28 @@
       <c r="I175" t="n">
         <v>0.7847796082496643</v>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="J175" t="n">
+        <v>0.292246013879776</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.7550275921821594</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>HD 220339</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="M175" t="inlineStr">
         <is>
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
+      <c r="N175" t="inlineStr">
         <is>
           <t>HIP 115445</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
+      <c r="O175" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9344,17 +10400,23 @@
       <c r="I176" t="n">
         <v>0.8087957501411438</v>
       </c>
-      <c r="J176" t="inlineStr">
+      <c r="J176" t="n">
+        <v>0.2782862782478333</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.7127173542976379</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>HD 148653B</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="M176" t="inlineStr">
         <is>
           <t>GJ 627 B</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9390,22 +10452,28 @@
       <c r="I177" t="n">
         <v>0.7477733492851257</v>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J177" t="n">
+        <v>0.2356643229722977</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.7839070558547974</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>HD 174080</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="M177" t="inlineStr">
         <is>
           <t>GJ 727</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="N177" t="inlineStr">
         <is>
           <t>HIP 92283</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="O177" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9441,22 +10509,28 @@
       <c r="I178" t="n">
         <v>0.7491788864135742</v>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="J178" t="n">
+        <v>0.2455167472362518</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.7352140545845032</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>HD 153525</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="M178" t="inlineStr">
         <is>
           <t>GJ 649.1 C</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr">
+      <c r="N178" t="inlineStr">
         <is>
           <t>HIP 83006</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
+      <c r="O178" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9492,22 +10566,28 @@
       <c r="I179" t="n">
         <v>0.7698585391044617</v>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="J179" t="n">
+        <v>0.2430458962917328</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.7249824404716492</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>HD   2025</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="N179" t="inlineStr">
         <is>
           <t>HIP 1936</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
+      <c r="O179" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9543,22 +10623,28 @@
       <c r="I180" t="n">
         <v>0.7074069380760193</v>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="J180" t="n">
+        <v>0.187602236866951</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.7238188982009888</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>HD  24916, HD  24916A</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>GJ 157 A</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="N180" t="inlineStr">
         <is>
           <t>HIP 18512</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
+      <c r="O180" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -9594,22 +10680,28 @@
       <c r="I181" t="n">
         <v>0.7439993619918823</v>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="J181" t="n">
+        <v>0.2297816276550293</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.7728793621063232</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>HD 124642</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="M181" t="inlineStr">
         <is>
           <t>GJ 3833</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr">
+      <c r="N181" t="inlineStr">
         <is>
           <t>HIP 69526</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
+      <c r="O181" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9645,22 +10737,28 @@
       <c r="I182" t="n">
         <v>0.6645650267601013</v>
       </c>
-      <c r="J182" t="inlineStr">
+      <c r="J182" t="n">
+        <v>0.1323452442884445</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.8095040321350098</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>HD  97101</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="M182" t="inlineStr">
         <is>
           <t>GJ 414 A</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr">
+      <c r="N182" t="inlineStr">
         <is>
           <t>HIP 54646</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
+      <c r="O182" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9696,22 +10794,28 @@
       <c r="I183" t="n">
         <v>0.7528312206268311</v>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="J183" t="n">
+        <v>0.2141500115394592</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.734702467918396</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>HD  47752</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="M183" t="inlineStr">
         <is>
           <t>GJ 241</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr">
+      <c r="N183" t="inlineStr">
         <is>
           <t>HIP 32010</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
+      <c r="O183" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9747,22 +10851,28 @@
       <c r="I184" t="n">
         <v>0.7329116463661194</v>
       </c>
-      <c r="J184" t="inlineStr">
+      <c r="J184" t="n">
+        <v>0.2350498288869858</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.7805384993553162</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>HD  31560</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="M184" t="inlineStr">
         <is>
           <t>GJ 2037</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr">
+      <c r="N184" t="inlineStr">
         <is>
           <t>HIP 22907</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
+      <c r="O184" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9798,22 +10908,28 @@
       <c r="I185" t="n">
         <v>0.6654590368270874</v>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="J185" t="n">
+        <v>0.1331762373447418</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.6776435971260071</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>HD 166348</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="M185" t="inlineStr">
         <is>
           <t>GJ 707</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr">
+      <c r="N185" t="inlineStr">
         <is>
           <t>HIP 89211</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="O185" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9849,22 +10965,28 @@
       <c r="I186" t="n">
         <v>0.605965256690979</v>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="J186" t="n">
+        <v>0.07937894016504288</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.6635169386863708</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>HD 232979</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="M186" t="inlineStr">
         <is>
           <t>GJ 172</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
+      <c r="N186" t="inlineStr">
         <is>
           <t>HIP 21553</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
+      <c r="O186" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -9900,22 +11022,28 @@
       <c r="I187" t="n">
         <v>0.7418277859687805</v>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="J187" t="n">
+        <v>0.2141750752925873</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.7586798667907715</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>HD  52919</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="M187" t="inlineStr">
         <is>
           <t>GJ 1094</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="N187" t="inlineStr">
         <is>
           <t>HIP 33955</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
+      <c r="O187" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9951,22 +11079,28 @@
       <c r="I188" t="n">
         <v>0.7242029905319214</v>
       </c>
-      <c r="J188" t="inlineStr">
+      <c r="J188" t="n">
+        <v>0.2193269431591034</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.7447954416275024</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>HD  82342</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="M188" t="inlineStr">
         <is>
           <t>GJ 1126</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr">
+      <c r="N188" t="inlineStr">
         <is>
           <t>HIP 46626</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr">
+      <c r="O188" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10002,12 +11136,18 @@
       <c r="I189" t="n">
         <v>0.6768389940261841</v>
       </c>
-      <c r="J189" t="inlineStr">
+      <c r="J189" t="n">
+        <v>0.1459556221961975</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.6773503422737122</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>HD 152705</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr">
+      <c r="O189" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10043,22 +11183,28 @@
       <c r="I190" t="n">
         <v>0.7237683534622192</v>
       </c>
-      <c r="J190" t="inlineStr">
+      <c r="J190" t="n">
+        <v>0.2034180462360382</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.7193398475646973</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>HD 188474</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="M190" t="inlineStr">
         <is>
           <t>GJ 1246</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr">
+      <c r="N190" t="inlineStr">
         <is>
           <t>HIP 98130</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr">
+      <c r="O190" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10094,17 +11240,23 @@
       <c r="I191" t="n">
         <v>0.6284772753715515</v>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="J191" t="n">
+        <v>0.09494007378816605</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.6951326131820679</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>HD  99279B</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>GJ 428 B</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
+      <c r="O191" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10140,22 +11292,28 @@
       <c r="I192" t="n">
         <v>0.6749641895294189</v>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="J192" t="n">
+        <v>0.1357319355010986</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.7526888847351074</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>HD 221503</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="M192" t="inlineStr">
         <is>
           <t>GJ 898</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="N192" t="inlineStr">
         <is>
           <t>HIP 116215</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
+      <c r="O192" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10191,22 +11349,28 @@
       <c r="I193" t="n">
         <v>0.6957222819328308</v>
       </c>
-      <c r="J193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0.1498997062444687</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.6665953993797302</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>HD     55</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="M193" t="inlineStr">
         <is>
           <t>GJ 3</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="N193" t="inlineStr">
         <is>
           <t>HIP 436</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
+      <c r="O193" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10242,22 +11406,28 @@
       <c r="I194" t="n">
         <v>0.6248056888580322</v>
       </c>
-      <c r="J194" t="inlineStr">
+      <c r="J194" t="n">
+        <v>0.09174777567386627</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.7714046835899353</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>HD  16157</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="M194" t="inlineStr">
         <is>
           <t>GJ 103</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="N194" t="inlineStr">
         <is>
           <t>HIP 11964</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
+      <c r="O194" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -10293,22 +11463,28 @@
       <c r="I195" t="n">
         <v>0.6109453439712524</v>
       </c>
-      <c r="J195" t="inlineStr">
+      <c r="J195" t="n">
+        <v>0.08590003103017807</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.6361759305000305</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>HD 196877</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="M195" t="inlineStr">
         <is>
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="N195" t="inlineStr">
         <is>
           <t>HIP 102186</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
+      <c r="O195" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10344,22 +11520,28 @@
       <c r="I196" t="n">
         <v>0.6504907608032227</v>
       </c>
-      <c r="J196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0.1172263771295547</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.7471815347671509</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>HD 234078</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="M196" t="inlineStr">
         <is>
           <t>GJ 532</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="N196" t="inlineStr">
         <is>
           <t>HIP 67691</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr">
+      <c r="O196" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10395,17 +11577,23 @@
       <c r="I197" t="n">
         <v>0.6391977667808533</v>
       </c>
-      <c r="J197" t="inlineStr">
+      <c r="J197" t="n">
+        <v>0.1070997714996338</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.726391077041626</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>HD  61606B</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="M197" t="inlineStr">
         <is>
           <t>GJ 282 B</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
+      <c r="O197" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10441,17 +11629,23 @@
       <c r="I198" t="n">
         <v>0.5746476054191589</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="n">
+        <v>0.06467748433351517</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.6060306429862976</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>GJ 519</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="N198" t="inlineStr">
         <is>
           <t>HIP 66459</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
+      <c r="O198" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10487,17 +11681,23 @@
       <c r="I199" t="n">
         <v>0.6586083769798279</v>
       </c>
-      <c r="J199" t="inlineStr">
+      <c r="J199" t="n">
+        <v>0.1235216408967972</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.6961553692817688</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
+      <c r="N199" t="inlineStr">
         <is>
           <t>HIP 76779</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr">
+      <c r="O199" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10533,17 +11733,23 @@
       <c r="I200" t="n">
         <v>0.6509712934494019</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="J200" t="n">
+        <v>0.1142766997218132</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.74996018409729</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>GJ 14</t>
         </is>
       </c>
-      <c r="L200" t="inlineStr">
+      <c r="N200" t="inlineStr">
         <is>
           <t>HIP 1368</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr">
+      <c r="O200" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10579,22 +11785,28 @@
       <c r="I201" t="n">
         <v>0.6726620197296143</v>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="J201" t="n">
+        <v>0.1404419541358948</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.669498085975647</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>HD  25004</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="M201" t="inlineStr">
         <is>
           <t>GJ 1066</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr">
+      <c r="N201" t="inlineStr">
         <is>
           <t>HIP 18450</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
+      <c r="O201" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10630,22 +11842,28 @@
       <c r="I202" t="n">
         <v>0.6622315645217896</v>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="J202" t="n">
+        <v>0.1229352727532387</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.7342212796211243</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>HD 191391</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="M202" t="inlineStr">
         <is>
           <t>GJ 782</t>
         </is>
       </c>
-      <c r="L202" t="inlineStr">
+      <c r="N202" t="inlineStr">
         <is>
           <t>HIP 99385</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr">
+      <c r="O202" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10681,22 +11899,28 @@
       <c r="I203" t="n">
         <v>0.577451765537262</v>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="J203" t="n">
+        <v>0.0668027251958847</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.7026669979095459</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>HD 209290</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="M203" t="inlineStr">
         <is>
           <t>GJ 846</t>
         </is>
       </c>
-      <c r="L203" t="inlineStr">
+      <c r="N203" t="inlineStr">
         <is>
           <t>HIP 108782</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr">
+      <c r="O203" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10732,17 +11956,23 @@
       <c r="I204" t="n">
         <v>0.6484059691429138</v>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="J204" t="n">
+        <v>0.1075957864522934</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.7464951872825623</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>HD 120036B</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="M204" t="inlineStr">
         <is>
           <t>GJ 1177 B</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr">
+      <c r="O204" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10778,17 +12008,23 @@
       <c r="I205" t="n">
         <v>0.6560998558998108</v>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="J205" t="n">
+        <v>0.1237254440784454</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.7798703908920288</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>GJ 156</t>
         </is>
       </c>
-      <c r="L205" t="inlineStr">
+      <c r="N205" t="inlineStr">
         <is>
           <t>HIP 18280</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr">
+      <c r="O205" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10824,22 +12060,28 @@
       <c r="I206" t="n">
         <v>0.6929655075073242</v>
       </c>
-      <c r="J206" t="inlineStr">
+      <c r="J206" t="n">
+        <v>0.143118679523468</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.659397304058075</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>HD 111261</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="M206" t="inlineStr">
         <is>
           <t>GJ 1164 A</t>
         </is>
       </c>
-      <c r="L206" t="inlineStr">
+      <c r="N206" t="inlineStr">
         <is>
           <t>HIP 62472</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr">
+      <c r="O206" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10875,22 +12117,28 @@
       <c r="I207" t="n">
         <v>0.5864518880844116</v>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="J207" t="n">
+        <v>0.06956437975168228</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.692834734916687</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>HD 176029</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="M207" t="inlineStr">
         <is>
           <t>GJ 740</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr">
+      <c r="N207" t="inlineStr">
         <is>
           <t>HIP 93101</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
+      <c r="O207" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10926,22 +12174,28 @@
       <c r="I208" t="n">
         <v>0.6827476024627686</v>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0.1537448167800903</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.6748756170272827</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>HD 219764</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="M208" t="inlineStr">
         <is>
           <t>GJ 1283</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr">
+      <c r="N208" t="inlineStr">
         <is>
           <t>HIP 115123</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr">
+      <c r="O208" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10977,17 +12231,23 @@
       <c r="I209" t="n">
         <v>0.5476111769676208</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0.05286543443799019</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0.5433851480484009</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>GJ 9592, GJ 678.1 A</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr">
+      <c r="N209" t="inlineStr">
         <is>
           <t>HIP 85665</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr">
+      <c r="O209" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11023,17 +12283,23 @@
       <c r="I210" t="n">
         <v>0.6704689860343933</v>
       </c>
-      <c r="J210" t="inlineStr">
+      <c r="J210" t="n">
+        <v>0.1217036172747612</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.6386978030204773</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr">
+      <c r="N210" t="inlineStr">
         <is>
           <t>HIP 25283</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr">
+      <c r="O210" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -11069,17 +12335,23 @@
       <c r="I211" t="n">
         <v>0.5750225186347961</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="J211" t="n">
+        <v>0.06640145182609558</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.614186704158783</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>GJ 96</t>
         </is>
       </c>
-      <c r="L211" t="inlineStr">
+      <c r="N211" t="inlineStr">
         <is>
           <t>HIP 11048</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr">
+      <c r="O211" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11115,22 +12387,28 @@
       <c r="I212" t="n">
         <v>0.6626129746437073</v>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="J212" t="n">
+        <v>0.1275685727596283</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.6973951458930969</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>HD  20280</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="M212" t="inlineStr">
         <is>
           <t>GJ 131</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr">
+      <c r="N212" t="inlineStr">
         <is>
           <t>HIP 15095</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr">
+      <c r="O212" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11166,17 +12444,23 @@
       <c r="I213" t="n">
         <v>0.6487706303596497</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="J213" t="n">
+        <v>0.1124817058444023</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.6808800101280212</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>GJ 562</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr">
+      <c r="N213" t="inlineStr">
         <is>
           <t>HIP 72237</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr">
+      <c r="O213" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11212,22 +12496,28 @@
       <c r="I214" t="n">
         <v>0.6030226945877075</v>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="J214" t="n">
+        <v>0.08011328428983688</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.6422748565673828</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>HD 184489</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="M214" t="inlineStr">
         <is>
           <t>GJ 763</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr">
+      <c r="N214" t="inlineStr">
         <is>
           <t>HIP 96285</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr">
+      <c r="O214" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11263,17 +12553,23 @@
       <c r="I215" t="n">
         <v>0.6360238790512085</v>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="J215" t="n">
+        <v>0.1027137190103531</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.6831396818161011</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>GJ 3481</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr">
+      <c r="N215" t="inlineStr">
         <is>
           <t>HIP 39826</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr">
+      <c r="O215" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -11309,17 +12605,23 @@
       <c r="I216" t="n">
         <v>0.6421307921409607</v>
       </c>
-      <c r="J216" t="inlineStr">
+      <c r="J216" t="n">
+        <v>0.107005387544632</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.7143532633781433</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>HD 116495A</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="M216" t="inlineStr">
         <is>
           <t>GJ 509 A</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr">
+      <c r="O216" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11355,22 +12657,28 @@
       <c r="I217" t="n">
         <v>0.5964747071266174</v>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J217" t="n">
+        <v>0.07370609790086746</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.6844504475593567</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>HD  23453</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="M217" t="inlineStr">
         <is>
           <t>GJ 154</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr">
+      <c r="N217" t="inlineStr">
         <is>
           <t>HIP 17609</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr">
+      <c r="O217" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -11406,17 +12714,23 @@
       <c r="I218" t="n">
         <v>0.6473017334938049</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="J218" t="n">
+        <v>0.1138321161270142</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.7120388746261597</v>
+      </c>
+      <c r="M218" t="inlineStr">
         <is>
           <t>GJ 583</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr">
+      <c r="N218" t="inlineStr">
         <is>
           <t>HIP 75201</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
+      <c r="O218" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11452,12 +12766,18 @@
       <c r="I219" t="n">
         <v>0.6415486335754395</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="J219" t="n">
+        <v>0.10798329859972</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.6824297308921814</v>
+      </c>
+      <c r="M219" t="inlineStr">
         <is>
           <t>GJ 499 A</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
+      <c r="O219" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
